--- a/Output Data/unique_names.xlsx
+++ b/Output Data/unique_names.xlsx
@@ -2108,12 +2108,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Chordata (Tunicata)</t>
+          <t>Mollusca</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tunicates</t>
+          <t>Shellfish</t>
         </is>
       </c>
     </row>
